--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A884F8-F8E9-40E7-BE75-4D5FC53CEEDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87344BE8-1244-9044-8EB5-D8653AEB7299}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -169,12 +170,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,12 +202,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,17 +493,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="5" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
@@ -503,7 +519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -517,7 +533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -527,29 +543,37 @@
       <c r="C3">
         <v>7997.4610949333346</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="5">
+        <v>8104.9765866750704</v>
+      </c>
+      <c r="E3">
+        <v>8015.5311611539355</v>
+      </c>
       <c r="F3">
         <v>8060.78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>4360.2802202727298</v>
       </c>
       <c r="C4">
         <v>4241.3860314393951</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="6">
+        <v>4360.2802202727298</v>
+      </c>
+      <c r="E4">
+        <v>4232.5790544887777</v>
+      </c>
       <c r="F4">
         <v>4729.47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -559,159 +583,237 @@
       <c r="C5">
         <v>12296.624447370001</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="5">
+        <v>12405.1838487068</v>
+      </c>
+      <c r="E5">
+        <v>12319.048864472534</v>
+      </c>
       <c r="F5">
         <v>12953.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>95126.579419999995</v>
       </c>
       <c r="C6">
         <v>95000.365685666649</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>95089.676854511796</v>
+      </c>
+      <c r="E6">
+        <v>94809.768214500757</v>
+      </c>
       <c r="F6">
         <v>94474.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>63589.112010199402</v>
       </c>
       <c r="C7">
         <v>63570.271816893008</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="6">
+        <v>63589.112010199402</v>
+      </c>
+      <c r="E7">
+        <v>63499.707305148411</v>
+      </c>
       <c r="F7">
         <v>63309.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>101681.603445402</v>
       </c>
       <c r="C8">
         <v>101417.61848233362</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="6">
+        <v>101681.603445402</v>
+      </c>
+      <c r="E8">
+        <v>101414.0292250528</v>
+      </c>
       <c r="F8">
         <v>94201</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="5">
+        <v>36625.0716044816</v>
+      </c>
+      <c r="C9">
+        <v>36173.89957494483</v>
+      </c>
+      <c r="D9" s="1">
+        <v>36561.951370356001</v>
+      </c>
+      <c r="E9">
+        <v>36252.63615573469</v>
+      </c>
       <c r="F9">
         <v>39581.699999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="6">
+        <v>28542.771635888599</v>
+      </c>
+      <c r="C10">
+        <v>28330.97978755787</v>
+      </c>
+      <c r="D10" s="6">
+        <v>28542.771635888599</v>
+      </c>
+      <c r="E10">
+        <v>28309.399643477958</v>
+      </c>
       <c r="F10">
         <v>28425.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="5">
+        <v>42433.877733358197</v>
+      </c>
+      <c r="C11">
+        <v>42018.803631269402</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42433.245169019901</v>
+      </c>
+      <c r="E11">
+        <v>41992.527931554832</v>
+      </c>
       <c r="F11">
         <v>39922.699999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1">
+        <v>399002.00853045302</v>
+      </c>
+      <c r="C12">
+        <v>398217.19916334562</v>
+      </c>
+      <c r="D12" s="5">
+        <v>400248.14848877199</v>
+      </c>
+      <c r="E12">
+        <v>398045.26742695848</v>
+      </c>
       <c r="F12">
         <v>389719</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="5">
+        <v>242377.56016369499</v>
+      </c>
+      <c r="C13">
+        <v>241509.94578424594</v>
+      </c>
+      <c r="D13" s="1">
+        <v>242287.34162194101</v>
+      </c>
+      <c r="E13">
+        <v>241305.79702478551</v>
+      </c>
       <c r="F13">
         <v>228695</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="5">
+        <v>418808.450800194</v>
+      </c>
+      <c r="C14">
+        <v>416450.68522749085</v>
+      </c>
+      <c r="D14" s="1">
+        <v>417640.92966179003</v>
+      </c>
+      <c r="E14">
+        <v>415250.40975933988</v>
+      </c>
       <c r="F14">
         <v>387047</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>172497.851</v>
       </c>
       <c r="C15">
         <v>170739.39266666665</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1">
+        <v>171834.493924309</v>
+      </c>
+      <c r="E15">
+        <v>170752.9838378666</v>
+      </c>
       <c r="F15">
         <v>170566</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>105313.69749999999</v>
       </c>
       <c r="C16">
         <v>104730.87948999999</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>105271.661943749</v>
+      </c>
+      <c r="E16">
+        <v>104732.18382693018</v>
+      </c>
       <c r="F16">
         <v>103513</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -721,75 +823,97 @@
       <c r="C17">
         <v>159905.91033799099</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="5">
+        <v>160777.29447545999</v>
+      </c>
+      <c r="E17">
+        <v>159847.45428455665</v>
+      </c>
       <c r="F17">
         <v>146943</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="5">
         <v>1625993.2006550699</v>
       </c>
       <c r="C18">
         <v>1619404.5078513792</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1">
+        <v>1621135.8203559001</v>
+      </c>
+      <c r="E18">
+        <v>1614161.3736320459</v>
+      </c>
       <c r="F18">
         <v>1576420</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <v>1014265.53301991</v>
       </c>
       <c r="C19">
         <v>1011677.7299025223</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1">
+        <v>1013020.84678693</v>
+      </c>
+      <c r="E19">
+        <v>1010463.7326297342</v>
+      </c>
       <c r="F19">
         <v>984377</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>1732965.5902255201</v>
       </c>
       <c r="C20">
         <v>1730127.8918123906</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1">
+        <v>1731728.9669494401</v>
+      </c>
+      <c r="E20">
+        <v>1726515.3325631507</v>
+      </c>
       <c r="F20">
         <v>1588580</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="5">
         <v>683725.24001831096</v>
       </c>
       <c r="C21">
         <v>676470.81172329991</v>
       </c>
+      <c r="D21" s="1">
+        <v>680178.390433389</v>
+      </c>
+      <c r="E21">
+        <v>673490.52364415012</v>
+      </c>
       <c r="F21">
         <v>663154</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -799,71 +923,97 @@
       <c r="C22">
         <v>398086.99802177947</v>
       </c>
+      <c r="D22" s="5">
+        <v>404525.33889525803</v>
+      </c>
+      <c r="E22">
+        <v>398126.69074963324</v>
+      </c>
       <c r="F22">
         <v>386648</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <v>712454.39400768804</v>
       </c>
       <c r="C23">
         <v>707677.48042967252</v>
       </c>
+      <c r="D23" s="1">
+        <v>710834.48414853797</v>
+      </c>
+      <c r="E23">
+        <v>706762.25578334823</v>
+      </c>
       <c r="F23">
         <v>653507</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="5">
         <v>6613797.4815787198</v>
       </c>
       <c r="C24">
         <v>6566962.6922944337</v>
       </c>
+      <c r="D24" s="1">
+        <v>6603553.1813591896</v>
+      </c>
+      <c r="E24">
+        <v>6539980.9799486417</v>
+      </c>
       <c r="F24">
         <v>6439530</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="5">
         <v>3906549.5864411001</v>
       </c>
       <c r="C25">
         <v>3871244.4170862152</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1">
+        <v>3901397.8074120898</v>
+      </c>
+      <c r="E25">
+        <v>3856823.9603630104</v>
+      </c>
       <c r="F25">
         <v>3737830</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>7022027.1322091799</v>
       </c>
       <c r="C26">
         <v>6997252.184599122</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1">
+        <v>7019255.2483344404</v>
+      </c>
+      <c r="E26">
+        <v>6975280.4316529604</v>
+      </c>
       <c r="F26">
         <v>6493860</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -873,13 +1023,17 @@
       <c r="C27">
         <v>2311444.6590660498</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="5">
+        <v>2342127.0594161702</v>
+      </c>
+      <c r="E27">
+        <v>2307176.0051972414</v>
+      </c>
       <c r="F27">
         <v>2161950</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -889,13 +1043,17 @@
       <c r="C28">
         <v>831471.35988504067</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="5">
+        <v>852005.40971716796</v>
+      </c>
+      <c r="E28">
+        <v>826876.71660428809</v>
+      </c>
       <c r="F28">
         <v>797026</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -905,11 +1063,17 @@
       <c r="C29">
         <v>1866377.6438141835</v>
       </c>
+      <c r="D29" s="5">
+        <v>1910441.86783607</v>
+      </c>
+      <c r="E29">
+        <v>1859415.3916085786</v>
+      </c>
       <c r="F29">
         <v>1688720</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -919,11 +1083,17 @@
       <c r="C30" s="2">
         <v>20004898.043413531</v>
       </c>
+      <c r="D30" s="7">
+        <v>20257922.919479199</v>
+      </c>
+      <c r="E30" s="2">
+        <v>19937903.247925267</v>
+      </c>
       <c r="F30">
         <v>19460600</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -933,11 +1103,17 @@
       <c r="C31" s="2">
         <v>11837263.908293499</v>
       </c>
+      <c r="D31" s="7">
+        <v>12094973.274022</v>
+      </c>
+      <c r="E31" s="2">
+        <v>11857632.734526958</v>
+      </c>
       <c r="F31">
         <v>11392300</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -947,36 +1123,42 @@
       <c r="C32" s="2">
         <v>21187719.779113892</v>
       </c>
+      <c r="D32" s="7">
+        <v>21508064.984756399</v>
+      </c>
+      <c r="E32" s="2">
+        <v>21118423.07326987</v>
+      </c>
       <c r="F32">
         <v>18737100</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
